--- a/book.xlsx
+++ b/book.xlsx
@@ -379,422 +379,422 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.001459</v>
+        <v>0.028184</v>
       </c>
       <c r="B2">
-        <v>7182.69</v>
+        <v>8867.58</v>
       </c>
       <c r="C2">
-        <v>7169.67887777</v>
+        <v>8853.5</v>
       </c>
       <c r="D2">
-        <v>1.013e-05</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.001486</v>
+        <v>0.17481</v>
       </c>
       <c r="B3">
-        <v>7184.61</v>
+        <v>8867.57</v>
       </c>
       <c r="C3">
-        <v>7090</v>
+        <v>8853.4</v>
       </c>
       <c r="D3">
-        <v>0.0002</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.0015</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>7180.89</v>
+        <v>8867.469999999999</v>
       </c>
       <c r="C4">
-        <v>7130.67349164</v>
+        <v>8851.700000000001</v>
       </c>
       <c r="D4">
-        <v>0.00025588</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001669</v>
+        <v>0.489477</v>
       </c>
       <c r="B5">
-        <v>7183.26</v>
+        <v>8867</v>
       </c>
       <c r="C5">
-        <v>7049.55332831</v>
+        <v>8851.6</v>
       </c>
       <c r="D5">
-        <v>0.00025588</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002</v>
+        <v>1.229764</v>
       </c>
       <c r="B6">
-        <v>7181.22</v>
+        <v>8866.82</v>
       </c>
       <c r="C6">
-        <v>7173.6564755</v>
+        <v>8772.700000000001</v>
       </c>
       <c r="D6">
-        <v>0.00027326</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0022</v>
+        <v>0.131358</v>
       </c>
       <c r="B7">
-        <v>7181.31</v>
+        <v>8866.66</v>
       </c>
       <c r="C7">
-        <v>7128.05960971</v>
+        <v>8760.700000000001</v>
       </c>
       <c r="D7">
-        <v>0.00027326</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.002781</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>7190.21</v>
+        <v>8866.530000000001</v>
       </c>
       <c r="C8">
-        <v>7082.46274392</v>
+        <v>8720.5</v>
       </c>
       <c r="D8">
-        <v>0.00027326</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.003</v>
+        <v>0.194997</v>
       </c>
       <c r="B9">
-        <v>7183.82</v>
+        <v>8866.290000000001</v>
       </c>
       <c r="C9">
-        <v>7061</v>
+        <v>8640.200000000001</v>
       </c>
       <c r="D9">
-        <v>0.0003668</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.003058</v>
+        <v>0.053022</v>
       </c>
       <c r="B10">
-        <v>7186.16</v>
+        <v>8866.129999999999</v>
       </c>
       <c r="C10">
-        <v>7147</v>
+        <v>8640</v>
       </c>
       <c r="D10">
-        <v>0.00036699</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.003058</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>7185.97</v>
+        <v>8866.120000000001</v>
       </c>
       <c r="C11">
-        <v>7174.17538169</v>
+        <v>8594.700000000001</v>
       </c>
       <c r="D11">
-        <v>0.0004</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.003058</v>
+        <v>1.557721</v>
       </c>
       <c r="B12">
-        <v>7185.22</v>
+        <v>8865.200000000001</v>
       </c>
       <c r="C12">
-        <v>7118.07579261</v>
+        <v>8451</v>
       </c>
       <c r="D12">
-        <v>0.00046755</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.003058</v>
+        <v>1.25</v>
       </c>
       <c r="B13">
-        <v>7184.81</v>
+        <v>8865.190000000001</v>
       </c>
       <c r="C13">
-        <v>7078.40372119</v>
+        <v>8375.700000000001</v>
       </c>
       <c r="D13">
-        <v>0.00048331</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.003058</v>
+        <v>0.240177</v>
       </c>
       <c r="B14">
-        <v>7184.79</v>
+        <v>8865.040000000001</v>
       </c>
       <c r="C14">
-        <v>7107.4663</v>
+        <v>8375.4</v>
       </c>
       <c r="D14">
-        <v>0.0005</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.003059</v>
+        <v>0.3</v>
       </c>
       <c r="B15">
-        <v>7184.24</v>
+        <v>8865.030000000001</v>
       </c>
       <c r="C15">
-        <v>7037.12157603</v>
+        <v>8360</v>
       </c>
       <c r="D15">
-        <v>0.00050031</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.003059</v>
+        <v>0.0102</v>
       </c>
       <c r="B16">
-        <v>7183.6</v>
+        <v>8864.440000000001</v>
       </c>
       <c r="C16">
-        <v>7118.62542849</v>
+        <v>8300</v>
       </c>
       <c r="D16">
-        <v>0.00057602</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.003059</v>
+        <v>0.141378</v>
       </c>
       <c r="B17">
-        <v>7183.47</v>
+        <v>8864.18</v>
       </c>
       <c r="C17">
-        <v>7052.91503992</v>
+        <v>8214.700000000001</v>
       </c>
       <c r="D17">
-        <v>0.00061045</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.003059</v>
+        <v>0.0101</v>
       </c>
       <c r="B18">
-        <v>7182.48</v>
+        <v>8862.620000000001</v>
       </c>
       <c r="C18">
-        <v>7086.4029676</v>
+        <v>8211.1</v>
       </c>
       <c r="D18">
-        <v>0.00070557</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.00306</v>
+        <v>0.183164</v>
       </c>
       <c r="B19">
-        <v>7182.31</v>
+        <v>8861.799999999999</v>
       </c>
       <c r="C19">
-        <v>7126.84088629</v>
+        <v>8211</v>
       </c>
       <c r="D19">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.00306</v>
+        <v>0.499192</v>
       </c>
       <c r="B20">
-        <v>7181.43</v>
+        <v>8861.49</v>
       </c>
       <c r="C20">
-        <v>7118.37247829</v>
+        <v>8201</v>
       </c>
       <c r="D20">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.00306</v>
+        <v>0.08876000000000001</v>
       </c>
       <c r="B21">
-        <v>7181.07</v>
+        <v>8860.65</v>
       </c>
       <c r="C21">
-        <v>7117.36864732</v>
+        <v>8199</v>
       </c>
       <c r="D21">
-        <v>0.001</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.003888</v>
+        <v>2.4</v>
       </c>
       <c r="B22">
-        <v>7180.94</v>
+        <v>8860.639999999999</v>
       </c>
       <c r="C22">
-        <v>7090.664029</v>
+        <v>8186.1</v>
       </c>
       <c r="D22">
-        <v>0.001</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.004461</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="B23">
-        <v>7182</v>
+        <v>8860.620000000001</v>
       </c>
       <c r="C23">
-        <v>7083.63735</v>
+        <v>8001</v>
       </c>
       <c r="D23">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.005</v>
+        <v>0.5</v>
       </c>
       <c r="B24">
-        <v>7183</v>
+        <v>8860.530000000001</v>
       </c>
       <c r="C24">
-        <v>7082.23860784</v>
+        <v>8000.4</v>
       </c>
       <c r="D24">
-        <v>0.001</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.005079</v>
+        <v>0.054472</v>
       </c>
       <c r="B25">
-        <v>7183.76</v>
+        <v>8860.459999999999</v>
       </c>
       <c r="C25">
-        <v>7081.23987246</v>
+        <v>8000</v>
       </c>
       <c r="D25">
-        <v>0.001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.008056000000000001</v>
+        <v>0.226016</v>
       </c>
       <c r="B26">
-        <v>7191.24</v>
+        <v>8860.379999999999</v>
       </c>
       <c r="C26">
-        <v>7054.48717171</v>
+        <v>7860.5</v>
       </c>
       <c r="D26">
-        <v>0.001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.011124</v>
+        <v>0.670504</v>
       </c>
       <c r="B27">
-        <v>7180.69</v>
+        <v>8860</v>
       </c>
       <c r="C27">
-        <v>7047.6798</v>
+        <v>7510.4</v>
       </c>
       <c r="D27">
-        <v>0.001</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.017</v>
+        <v>0.24</v>
       </c>
       <c r="B28">
-        <v>7183.33</v>
+        <v>8859.889999999999</v>
       </c>
       <c r="C28">
-        <v>7046.10473739</v>
+        <v>7502</v>
       </c>
       <c r="D28">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.019039</v>
+        <v>2.4</v>
       </c>
       <c r="B29">
-        <v>7181.95</v>
+        <v>8859.84</v>
       </c>
       <c r="C29">
-        <v>7045.1110976</v>
+        <v>7501</v>
       </c>
       <c r="D29">
-        <v>0.001</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.020136</v>
+        <v>0.683736</v>
       </c>
       <c r="B30">
-        <v>7183.48</v>
+        <v>8859.709999999999</v>
       </c>
       <c r="C30">
-        <v>7134.14453049</v>
+        <v>7403.6</v>
       </c>
       <c r="D30">
-        <v>0.00133218</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.020872</v>
+        <v>0.152031</v>
       </c>
       <c r="B31">
-        <v>7187.78</v>
+        <v>8858.709999999999</v>
       </c>
       <c r="C31">
-        <v>7148.41467599</v>
+        <v>7400</v>
       </c>
       <c r="D31">
-        <v>0.00138326</v>
+        <v>0.066</v>
       </c>
     </row>
   </sheetData>
